--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1947526.641733633</v>
+        <v>2040343.71760972</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004886</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>612367.9462114763</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6226412.536475407</v>
+        <v>6659364.516859784</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -665,13 +667,13 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>30.49859044677805</v>
       </c>
       <c r="G2" t="n">
-        <v>348.3277782600117</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -716,7 +718,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -725,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -823,16 +825,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>32.03690397903019</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>103.8171286208093</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>170.2553066834602</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>381.9745900640191</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>97.91507131087589</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>106.4996628416748</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1136,22 +1138,22 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>217.0772816663271</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>181.1434624630639</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1291,25 +1293,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>127.800783542038</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>57.2921511054921</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1348,7 +1350,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1357,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1421,22 +1423,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W11" t="n">
-        <v>376.078238056252</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>97.60112162899995</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>125.7943750577565</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1768,16 +1770,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>161.6737988100371</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>165.7104322459758</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>75.30362264056416</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>160.9061021023304</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2147,7 +2149,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>75.25534642053297</v>
       </c>
       <c r="C22" t="n">
-        <v>68.69324378974208</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2293,7 +2295,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2713,7 +2715,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2722,16 +2724,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,22 +2763,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>108.3150987014993</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>135.7468035496482</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2956,16 +2958,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3010,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>148.1612423902099</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.3509450707813</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3189,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>87.94853404162691</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3433,10 +3435,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>66.82300722903223</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>161.6737988100367</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3509,19 +3511,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026568</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>71.04375511693026</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3679,7 +3681,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3724,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>232.6781960474238</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3746,19 +3748,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U41" t="n">
-        <v>12.24565954106004</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3901,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>54.77527813319439</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>19.64740624208219</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3983,19 +3985,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G44" t="n">
-        <v>19.05316191857477</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439301</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>108.4182639702447</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4147,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4192,16 +4194,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>170.5586896897042</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>920.4145973156844</v>
+        <v>168.753400468571</v>
       </c>
       <c r="C2" t="n">
-        <v>897.5542713693886</v>
+        <v>145.8930745222751</v>
       </c>
       <c r="D2" t="n">
-        <v>878.3020545947929</v>
+        <v>126.6408577476795</v>
       </c>
       <c r="E2" t="n">
-        <v>452.3251147426505</v>
+        <v>104.7043219359411</v>
       </c>
       <c r="F2" t="n">
-        <v>431.2413369724548</v>
+        <v>73.89766491899357</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>73.59900654884626</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>73.59900654884626</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924753</v>
+        <v>517.6410595347461</v>
       </c>
       <c r="L2" t="n">
-        <v>44.49822504924753</v>
+        <v>517.6410595347461</v>
       </c>
       <c r="M2" t="n">
-        <v>572.914647509062</v>
+        <v>977.2289161310159</v>
       </c>
       <c r="N2" t="n">
-        <v>1123.5801824935</v>
+        <v>1456.167840373445</v>
       </c>
       <c r="O2" t="n">
-        <v>1674.245717477938</v>
+        <v>1456.167840373445</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>1830.739470489013</v>
       </c>
       <c r="T2" t="n">
-        <v>2003.98568150701</v>
+        <v>1609.813899533647</v>
       </c>
       <c r="U2" t="n">
-        <v>1745.630772103422</v>
+        <v>1351.458990130059</v>
       </c>
       <c r="V2" t="n">
-        <v>1745.630772103422</v>
+        <v>993.9695752563084</v>
       </c>
       <c r="W2" t="n">
-        <v>1349.239422403769</v>
+        <v>597.5782255566553</v>
       </c>
       <c r="X2" t="n">
-        <v>1341.55982761192</v>
+        <v>589.8986307648066</v>
       </c>
       <c r="Y2" t="n">
-        <v>1340.262961607214</v>
+        <v>184.5613607196969</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>92.07822853000788</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115937</v>
+        <v>46.14877825422931</v>
       </c>
       <c r="J3" t="n">
-        <v>323.6423572907505</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>874.3078922751886</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="L3" t="n">
-        <v>1220.501010560616</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="M3" t="n">
-        <v>1220.501010560616</v>
+        <v>796.7851917762489</v>
       </c>
       <c r="N3" t="n">
-        <v>1220.501010560616</v>
+        <v>1275.724116018677</v>
       </c>
       <c r="O3" t="n">
-        <v>1220.501010560616</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>511.9166383730123</v>
+        <v>1121.883257816554</v>
       </c>
       <c r="C4" t="n">
-        <v>339.9440752519283</v>
+        <v>949.9106946954703</v>
       </c>
       <c r="D4" t="n">
-        <v>176.627302378699</v>
+        <v>786.593921822241</v>
       </c>
       <c r="E4" t="n">
-        <v>176.627302378699</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>176.627302378699</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>176.627302378699</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>96.19346351647548</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>322.7210647223127</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>677.4103860167335</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1517.50742245321</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>1808.106634375111</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="T4" t="n">
-        <v>2007.737591668685</v>
+        <v>1691.767416841773</v>
       </c>
       <c r="U4" t="n">
-        <v>1727.553143168989</v>
+        <v>1586.901630356107</v>
       </c>
       <c r="V4" t="n">
-        <v>1445.841675777018</v>
+        <v>1586.901630356107</v>
       </c>
       <c r="W4" t="n">
-        <v>1170.989271949531</v>
+        <v>1312.04922652862</v>
       </c>
       <c r="X4" t="n">
-        <v>928.4253753953359</v>
+        <v>1312.04922652862</v>
       </c>
       <c r="Y4" t="n">
-        <v>702.0826070850779</v>
+        <v>1312.04922652862</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>831.8385222885897</v>
+        <v>2043.959734409802</v>
       </c>
       <c r="C5" t="n">
-        <v>404.9377923018898</v>
+        <v>2021.099408463506</v>
       </c>
       <c r="D5" t="n">
-        <v>385.6855755272941</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="E5" t="n">
-        <v>363.7490397155557</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F5" t="n">
-        <v>342.66526194536</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G5" t="n">
         <v>342.3666035752127</v>
@@ -4565,28 +4567,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>116.829168004879</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O5" t="n">
-        <v>2059.098288819458</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>2059.098288819458</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4595,22 +4597,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1646.496266633259</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1260.663347376674</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1252.983752584825</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y5" t="n">
-        <v>847.6464825397157</v>
+        <v>2215.934791665823</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>416.2236218818665</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>659.4347056307208</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>1210.100240615159</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L6" t="n">
-        <v>1760.765775599597</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M6" t="n">
-        <v>1760.765775599597</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N6" t="n">
-        <v>1760.765775599597</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O6" t="n">
-        <v>1760.765775599597</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P6" t="n">
-        <v>1760.765775599597</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>983.018623257143</v>
+        <v>451.3798346740465</v>
       </c>
       <c r="C7" t="n">
-        <v>811.0460601360589</v>
+        <v>451.3798346740465</v>
       </c>
       <c r="D7" t="n">
-        <v>647.7292872628296</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="E7" t="n">
-        <v>481.5210814156832</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F7" t="n">
-        <v>309.6593071902436</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G7" t="n">
-        <v>143.4023374844757</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>143.4023374844757</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4726,49 +4728,49 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1947.200787969719</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1667.016339470023</v>
       </c>
       <c r="V7" t="n">
-        <v>1484.213795394888</v>
+        <v>1385.304872078052</v>
       </c>
       <c r="W7" t="n">
-        <v>1209.361391567401</v>
+        <v>1110.452468250565</v>
       </c>
       <c r="X7" t="n">
-        <v>1209.361391567401</v>
+        <v>867.88857169637</v>
       </c>
       <c r="Y7" t="n">
-        <v>983.018623257143</v>
+        <v>641.5458033861121</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1066.753158251661</v>
+        <v>533.9701437626245</v>
       </c>
       <c r="C8" t="n">
-        <v>1043.892832305366</v>
+        <v>511.1098178163287</v>
       </c>
       <c r="D8" t="n">
-        <v>824.622850824227</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>802.6863150124886</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>377.5621332018889</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>455.3583126271592</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>1006.023847611597</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1556.689382596036</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580474</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P8" t="n">
         <v>2107.354917580474</v>
@@ -4838,16 +4840,16 @@
         <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>1899.61838738015</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W8" t="n">
-        <v>1899.61838738015</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="X8" t="n">
-        <v>1891.938792588301</v>
+        <v>1359.155778099264</v>
       </c>
       <c r="Y8" t="n">
-        <v>1486.601522543192</v>
+        <v>953.8185080541546</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>323.6423572907505</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>323.6423572907505</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>323.6423572907505</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M9" t="n">
-        <v>751.8547856608809</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N9" t="n">
-        <v>751.8547856608809</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5772905989112</v>
+        <v>946.7665737820055</v>
       </c>
       <c r="C10" t="n">
-        <v>268.5772905989112</v>
+        <v>774.7940106609215</v>
       </c>
       <c r="D10" t="n">
-        <v>268.5772905989112</v>
+        <v>611.4772377876922</v>
       </c>
       <c r="E10" t="n">
-        <v>102.3690847517648</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F10" t="n">
-        <v>102.3690847517648</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G10" t="n">
-        <v>102.3690847517648</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4987,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1379.496439048266</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>1136.932542494071</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109769</v>
+        <v>1136.932542494071</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2079.78831433928</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1652.88758435258</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.88758435258</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1226.910644500437</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>801.7864626898374</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>397.4474002792861</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>99.57902175332094</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679216</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>64.68215049679216</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>64.68215049679216</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>865.1237628945952</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>1665.565375292398</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O11" t="n">
-        <v>2408.271910799778</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P11" t="n">
-        <v>3116.551189957705</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957705</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.740230712749</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3129.740230712749</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>2871.385321309161</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2871.385321309161</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>2491.508313171532</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>2079.78831433928</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2079.78831433928</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1992.543385290554</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>1875.037481808059</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>1771.197523323344</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>1666.495589596281</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>1572.849759279185</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>1478.795987496789</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>1425.419894259099</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>1432.866537221011</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>1704.564026500602</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>1704.564026500602</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>2505.005638898405</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>3152.088214754905</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N12" t="n">
-        <v>3152.088214754905</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O12" t="n">
-        <v>3152.088214754905</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="P12" t="n">
-        <v>3152.088214754905</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>3152.088214754905</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>3234.107524839608</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>3152.783277400863</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>3010.903341698541</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>2826.135145618178</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>2621.162006757444</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>2424.640629590661</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>2261.163283357324</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>2121.470394710617</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1147.863273021029</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C13" t="n">
-        <v>975.890709899945</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="D13" t="n">
-        <v>812.5739370267157</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="E13" t="n">
-        <v>646.3657311795693</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="F13" t="n">
-        <v>474.5039569541297</v>
+        <v>344.6859734421186</v>
       </c>
       <c r="G13" t="n">
-        <v>308.2469872483618</v>
+        <v>344.6859734421186</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>200.8897049502729</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267874</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2245.09517790992</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2245.09517790992</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>2245.09517790992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>2245.09517790992</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>2081.788310425035</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W13" t="n">
-        <v>1806.935906597548</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X13" t="n">
-        <v>1564.372010043353</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y13" t="n">
-        <v>1338.029241733095</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1079.521716903028</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>652.6209869163285</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>525.5559616054634</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>99.57902175332094</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>99.57902175332094</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G14" t="n">
-        <v>99.57902175332094</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>99.57902175332094</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>64.68215049679216</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>64.68215049679216</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="L14" t="n">
-        <v>715.2263527642963</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M14" t="n">
-        <v>1515.667965162099</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N14" t="n">
-        <v>2316.109577559902</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O14" t="n">
-        <v>3116.551189957705</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P14" t="n">
-        <v>3116.551189957705</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957705</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3129.740230712749</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>2908.814659757382</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>2650.459750353794</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2292.970335480044</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>1896.578985780391</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>1484.858986948138</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1079.521716903028</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.128793458704</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>343.826282738295</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>343.826282738295</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L15" t="n">
-        <v>343.826282738295</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M15" t="n">
-        <v>343.826282738295</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N15" t="n">
-        <v>343.826282738295</v>
+        <v>1782.102586447038</v>
       </c>
       <c r="O15" t="n">
-        <v>1075.152753954101</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2136.875619950717</v>
+        <v>684.0483191256287</v>
       </c>
       <c r="C16" t="n">
-        <v>1964.903056829633</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="D16" t="n">
-        <v>1801.586283956404</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="E16" t="n">
-        <v>1635.378078109257</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F16" t="n">
-        <v>1463.516303883818</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G16" t="n">
-        <v>1297.25933417805</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>1153.463065686204</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>1053.69449742648</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>1111.185825650638</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>1337.713426856475</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>1692.402748150896</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>2083.588543121147</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>2461.080053997182</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>2816.508182676946</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>3107.107394598846</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>3234.107524839608</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>3234.107524839608</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>3070.800657354722</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>3070.800657354722</v>
+        <v>1898.15780502933</v>
       </c>
       <c r="U16" t="n">
-        <v>3070.800657354722</v>
+        <v>1617.973356529634</v>
       </c>
       <c r="V16" t="n">
-        <v>3070.800657354722</v>
+        <v>1617.973356529634</v>
       </c>
       <c r="W16" t="n">
-        <v>2795.948253527235</v>
+        <v>1343.120952702147</v>
       </c>
       <c r="X16" t="n">
-        <v>2553.384356973041</v>
+        <v>1100.557056147952</v>
       </c>
       <c r="Y16" t="n">
-        <v>2327.041588662782</v>
+        <v>874.2142878376944</v>
       </c>
     </row>
     <row r="17">
@@ -5513,49 +5515,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1715.812045848769</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2720.098147267827</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N17" t="n">
-        <v>3696.349205754528</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.49385590534</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.49385590534</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399954</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5583,7 +5585,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
@@ -5595,22 +5597,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M18" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N18" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="O18" t="n">
-        <v>730.647150085061</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="P18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4017.903765402534</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C19" t="n">
-        <v>3845.93120228145</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="D19" t="n">
-        <v>3682.614429408221</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="E19" t="n">
-        <v>3516.406223561074</v>
+        <v>178.3669786993277</v>
       </c>
       <c r="F19" t="n">
-        <v>3344.544449335634</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>3034.491211138021</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>2934.722642878297</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>2992.213971102455</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>3218.741572308292</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>3573.430893602713</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>3964.616688572964</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>4697.536328128763</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>4988.135540050664</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>5115.135670291425</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>5115.135670291425</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>5115.135670291425</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>4871.796322517325</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>4871.796322517325</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>4871.796322517325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>4596.943918689838</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>4434.412502424858</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>4208.0697341146</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="20">
@@ -5750,25 +5752,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>292.0244587153436</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5777,22 +5779,22 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5826,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L21" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.604840768015</v>
+        <v>440.5322462326804</v>
       </c>
       <c r="C22" t="n">
-        <v>584.2177258288816</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="D22" t="n">
-        <v>584.2177258288816</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E22" t="n">
-        <v>584.2177258288816</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5914,46 +5916,46 @@
         <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302486</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100499</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025269</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251169</v>
       </c>
       <c r="U22" t="n">
-        <v>1869.241345563992</v>
+        <v>1542.018283751473</v>
       </c>
       <c r="V22" t="n">
-        <v>1587.529878172021</v>
+        <v>1260.306816359502</v>
       </c>
       <c r="W22" t="n">
-        <v>1312.677474344533</v>
+        <v>985.4544125320151</v>
       </c>
       <c r="X22" t="n">
-        <v>1070.113577790339</v>
+        <v>742.8905159778202</v>
       </c>
       <c r="Y22" t="n">
-        <v>843.7708094800807</v>
+        <v>516.5477476675622</v>
       </c>
     </row>
     <row r="23">
@@ -5987,10 +5989,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L23" t="n">
         <v>1007.532766690843</v>
@@ -6069,25 +6071,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N24" t="n">
-        <v>1158.289251381874</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6312,16 +6314,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6409,25 +6411,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2126.267936898555</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>2126.267936898555</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>2126.267936898555</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1844.556469506584</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1844.556469506584</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>848.3364291485279</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>621.99366083827</v>
       </c>
     </row>
     <row r="29">
@@ -6461,22 +6463,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1394.531219842001</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M29" t="n">
-        <v>2398.817321261059</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4220.213029898572</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
         <v>4541.493855905342</v>
@@ -6546,19 +6548,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1828.971033901635</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O30" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P30" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
         <v>1828.971033901635</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1085.715267670341</v>
+        <v>609.4538236255814</v>
       </c>
       <c r="C31" t="n">
-        <v>913.7427045492574</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D31" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>2002.531292319261</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.81982492729</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1720.81982492729</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1478.255928373095</v>
+        <v>835.7965919358394</v>
       </c>
       <c r="Y31" t="n">
-        <v>1275.881236382407</v>
+        <v>609.4538236255814</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O32" t="n">
-        <v>4289.300056251597</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6783,10 +6785,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>606.5662274551883</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C34" t="n">
-        <v>606.5662274551883</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D34" t="n">
-        <v>606.5662274551883</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E34" t="n">
-        <v>606.5662274551883</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
-        <v>434.7044532297487</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6889,19 +6891,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1822.202732251165</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1540.491264859194</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1265.638861031707</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1023.074964477512</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>796.7321961672538</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,46 +6925,46 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
         <v>4789.8428052092</v>
@@ -6977,7 +6979,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7020,19 +7022,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4017.903765402535</v>
+        <v>742.8905159778066</v>
       </c>
       <c r="C37" t="n">
-        <v>3845.931202281451</v>
+        <v>742.8905159778066</v>
       </c>
       <c r="D37" t="n">
-        <v>3682.614429408221</v>
+        <v>579.5737431045773</v>
       </c>
       <c r="E37" t="n">
-        <v>3516.406223561075</v>
+        <v>413.3655372574308</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.544449335635</v>
+        <v>413.3655372574308</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629867</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138022</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358143</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602714</v>
+        <v>741.010964130235</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100486</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976522</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656285</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578186</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818947</v>
       </c>
       <c r="R37" t="n">
-        <v>5115.135670291426</v>
+        <v>2235.677127506121</v>
       </c>
       <c r="S37" t="n">
-        <v>5115.135670291426</v>
+        <v>2065.542080025255</v>
       </c>
       <c r="T37" t="n">
-        <v>5115.135670291426</v>
+        <v>1822.202732251155</v>
       </c>
       <c r="U37" t="n">
-        <v>5115.135670291426</v>
+        <v>1542.01828375146</v>
       </c>
       <c r="V37" t="n">
-        <v>4951.828802806541</v>
+        <v>1260.306816359488</v>
       </c>
       <c r="W37" t="n">
-        <v>4676.976398979054</v>
+        <v>985.4544125320015</v>
       </c>
       <c r="X37" t="n">
-        <v>4434.412502424859</v>
+        <v>742.8905159778066</v>
       </c>
       <c r="Y37" t="n">
-        <v>4208.069734114601</v>
+        <v>742.8905159778066</v>
       </c>
     </row>
     <row r="38">
@@ -7148,73 +7150,73 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C39" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D39" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E39" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F39" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>4143.246847793825</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>4143.246847793825</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>4143.635082195253</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="R39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S39" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T39" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U39" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V39" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W39" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X39" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y39" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3582.845861148498</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C40" t="n">
-        <v>3582.845861148498</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D40" t="n">
-        <v>3582.845861148498</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E40" t="n">
-        <v>3416.637655301351</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F40" t="n">
-        <v>3244.775881075911</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G40" t="n">
-        <v>3078.518911370144</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H40" t="n">
-        <v>2934.722642878298</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878298</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102456</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308293</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602714</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572965</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128764</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P40" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R40" t="n">
-        <v>5068.0970569786</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S40" t="n">
-        <v>4897.962009497734</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T40" t="n">
-        <v>4654.622661723634</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="U40" t="n">
-        <v>4374.438213223939</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="V40" t="n">
-        <v>4092.726745831968</v>
+        <v>4833.424202899456</v>
       </c>
       <c r="W40" t="n">
-        <v>3817.874342004481</v>
+        <v>4558.571799071969</v>
       </c>
       <c r="X40" t="n">
-        <v>3582.845861148498</v>
+        <v>4316.007902517774</v>
       </c>
       <c r="Y40" t="n">
-        <v>3582.845861148498</v>
+        <v>4089.665134207516</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1779.235616776172</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.334886789472</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>929.0422659744721</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E41" t="n">
-        <v>929.0422659744721</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>503.9180841638723</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G41" t="n">
-        <v>99.57902175332097</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H41" t="n">
-        <v>99.57902175332097</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679219</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>117.2743796707</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>832.7826876461991</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1633.224300044002</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>1633.224300044002</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>2433.665912441806</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>3234.107524839609</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P41" t="n">
-        <v>3234.107524839609</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839609</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839609</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839609</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3013.181953884242</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3000.812600812465</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3000.812600812465</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2604.421251112811</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>2604.421251112811</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2199.083981067702</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679219</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>72.12879345870402</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>72.12879345870402</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K42" t="n">
-        <v>72.12879345870402</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L42" t="n">
-        <v>72.12879345870402</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M42" t="n">
-        <v>72.12879345870402</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N42" t="n">
-        <v>526.7633817320161</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O42" t="n">
-        <v>1327.204994129819</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P42" t="n">
-        <v>1327.204994129819</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1791.350470992599</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>563.6136198739432</v>
+        <v>601.2341827829796</v>
       </c>
       <c r="C43" t="n">
-        <v>391.6410567528592</v>
+        <v>429.2616196618956</v>
       </c>
       <c r="D43" t="n">
-        <v>391.6410567528592</v>
+        <v>265.9448467886663</v>
       </c>
       <c r="E43" t="n">
-        <v>336.3124929819558</v>
+        <v>265.9448467886663</v>
       </c>
       <c r="F43" t="n">
-        <v>164.4507187565162</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G43" t="n">
-        <v>164.4507187565162</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H43" t="n">
-        <v>164.4507187565162</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679219</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267874</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212082</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2198.056564597094</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2027.921517116229</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>1784.582169342129</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>1504.397720842433</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V43" t="n">
-        <v>1222.686253450462</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W43" t="n">
-        <v>1222.686253450462</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X43" t="n">
-        <v>980.1223568962668</v>
+        <v>1017.742919805303</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.7795885860088</v>
+        <v>791.4001514950452</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1785.222241060804</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1358.321511074105</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>935.0288902591049</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>509.0519504069624</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>83.92776859636263</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G44" t="n">
-        <v>64.68215049679215</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679215</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>427.2856093136876</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>1142.793917289187</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L44" t="n">
-        <v>1943.23552968699</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M44" t="n">
-        <v>1943.23552968699</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N44" t="n">
-        <v>2743.677142084793</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O44" t="n">
-        <v>2778.022045335424</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P44" t="n">
-        <v>2778.022045335424</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q44" t="n">
-        <v>3234.107524839607</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839607</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3013.181953884241</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3013.181953884241</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3013.181953884241</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2616.790604184587</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2205.070605352334</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2205.070605352334</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344826</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679215</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I45" t="n">
-        <v>72.12879345870398</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J45" t="n">
-        <v>72.12879345870398</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="K45" t="n">
-        <v>72.12879345870398</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="L45" t="n">
-        <v>72.12879345870398</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="M45" t="n">
-        <v>272.4865562816963</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="N45" t="n">
-        <v>1072.928168679499</v>
+        <v>4667.46047546338</v>
       </c>
       <c r="O45" t="n">
-        <v>1873.369781077302</v>
+        <v>4667.46047546338</v>
       </c>
       <c r="P45" t="n">
-        <v>1873.369781077302</v>
+        <v>4667.46047546338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>927.802928391774</v>
+        <v>3918.135197142812</v>
       </c>
       <c r="C46" t="n">
-        <v>755.83036527069</v>
+        <v>3746.162634021728</v>
       </c>
       <c r="D46" t="n">
-        <v>646.3169673209478</v>
+        <v>3582.845861148498</v>
       </c>
       <c r="E46" t="n">
-        <v>480.1087614738013</v>
+        <v>3416.637655301352</v>
       </c>
       <c r="F46" t="n">
-        <v>308.2469872483618</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483618</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679215</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R46" t="n">
-        <v>2198.056564597094</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S46" t="n">
-        <v>2198.056564597094</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T46" t="n">
-        <v>1954.717216822994</v>
+        <v>4871.796322517327</v>
       </c>
       <c r="U46" t="n">
-        <v>1674.532768323298</v>
+        <v>4591.611874017632</v>
       </c>
       <c r="V46" t="n">
-        <v>1392.821300931327</v>
+        <v>4591.611874017632</v>
       </c>
       <c r="W46" t="n">
-        <v>1117.96889710384</v>
+        <v>4316.759470190144</v>
       </c>
       <c r="X46" t="n">
-        <v>1117.96889710384</v>
+        <v>4144.477965453069</v>
       </c>
       <c r="Y46" t="n">
-        <v>1117.96889710384</v>
+        <v>3918.135197142812</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487776</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>571.1852249800525</v>
+        <v>501.6614210774821</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>521.0563139884143</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>521.3520529641996</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
@@ -8058,28 +8060,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>372.2051051843582</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>506.8734716662963</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>505.11971936751</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>131.7781250670408</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8149,7 +8151,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>94.6403295087172</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>108.8261593358512</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>84.86874406016992</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>266.2788756958125</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>578.7428998298237</v>
@@ -8304,13 +8306,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>259.4889279983319</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
@@ -8374,7 +8376,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464876</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>87.05611188819479</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>452.5855512828693</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
@@ -8535,10 +8537,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>467.1209648647325</v>
       </c>
       <c r="M9" t="n">
-        <v>455.6345869468032</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
@@ -8547,13 +8549,13 @@
         <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>845.9581441093338</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>845.8065040443481</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>787.5995810806501</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>369.2860653765454</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8763,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>831.0419679241317</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>676.7155440037424</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8784,10 +8786,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>230.3933721714771</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>702.6160445827093</v>
       </c>
       <c r="L14" t="n">
-        <v>695.4273982583846</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093338</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443481</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>845.9178405659261</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9015,19 +9017,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>761.8854970109148</v>
+        <v>153.3615438023236</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,10 +9169,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>579.1176643018607</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>653.6520906270367</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9243,10 +9245,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
@@ -9255,13 +9257,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>657.8632399032651</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>407.0273017394389</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>221.0580860608543</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9416,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>98.60750039798609</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9474,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
@@ -9486,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>475.2939470053066</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>693.1063741240905</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9501,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>952.6858336296069</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9717,28 +9719,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>574.2427960500296</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,19 +9962,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>656.0343783945846</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>229.9501690078907</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10127,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>362.1014486857561</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
@@ -10194,13 +10196,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>921.9548738586921</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>229.9655591801901</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10209,7 +10211,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10361,13 +10363,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>604.3877546542399</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>105.9095497086638</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10431,13 +10433,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10583,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,13 +10670,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1004.802661823039</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>312.8133471445368</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10683,7 +10685,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10829,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,13 +10907,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>949.8342934347922</v>
+        <v>21.73518417458029</v>
       </c>
       <c r="O39" t="n">
         <v>921.6378271075471</v>
@@ -10923,7 +10925,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>82.54342329761462</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425252</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>845.8065040443483</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>845.9178405659263</v>
+        <v>238.1216346371742</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,16 +11144,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>445.5991972680949</v>
       </c>
       <c r="N42" t="n">
-        <v>480.5698850552711</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>831.6987709321245</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11297,22 +11299,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>845.8065040443479</v>
+        <v>751.2280472965118</v>
       </c>
       <c r="O44" t="n">
-        <v>72.08278082130838</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11370,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11382,22 +11384,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>225.4783591214111</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>829.8699094234435</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
-        <v>831.698770932124</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>392.0964168176092</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23309,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>16.34919814640455</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.169760948126836</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>293.2653195490932</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23656,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>6.759898196019378</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>75.19552205038323</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>94.83953384262102</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>79.23215548632254</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>113.008962604412</v>
       </c>
       <c r="C22" t="n">
-        <v>101.5595937001311</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -24136,13 +24138,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969547</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,22 +24651,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>60.1185983045572</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>104.3914540390047</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>91.97701519844301</v>
       </c>
       <c r="Y31" t="n">
-        <v>23.72839555637404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>76.64586596708327</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.77139277967795</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>117.2205539080147</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>117.2205539080147</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040147043</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>7.460061541229152</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>243.5257007684918</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>109.7708456554806</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>150.495750241103</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>381.242509867871</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>53.26534117425226</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>69.57956789894868</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>573250.1208572107</v>
+        <v>570278.0733782127</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>427948.0354196879</v>
+        <v>577142.5764940749</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>427948.0354196879</v>
+        <v>577142.5764940749</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>577142.5764940749</v>
+        <v>577142.576494075</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>577142.5764940749</v>
+        <v>577142.576494075</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>577142.5764940749</v>
+        <v>577142.5764940748</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>577142.5764940748</v>
+        <v>577142.5764940749</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>427948.035419688</v>
+        <v>577142.5764940749</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>427948.0354196879</v>
+        <v>577142.5764940749</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>480515.2011092094</v>
       </c>
       <c r="C2" t="n">
-        <v>480515.2011092094</v>
+        <v>480515.2011092093</v>
       </c>
       <c r="D2" t="n">
         <v>480515.2011092094</v>
       </c>
       <c r="E2" t="n">
-        <v>343829.0724022654</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="F2" t="n">
-        <v>343829.0724022653</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="G2" t="n">
         <v>463675.0825883938</v>
       </c>
       <c r="H2" t="n">
-        <v>463675.0825883939</v>
+        <v>463675.0825883941</v>
       </c>
       <c r="I2" t="n">
-        <v>463675.0825883939</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="J2" t="n">
         <v>463675.0825883938</v>
       </c>
       <c r="K2" t="n">
-        <v>463675.0825883937</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="L2" t="n">
         <v>463675.0825883938</v>
       </c>
       <c r="M2" t="n">
-        <v>463675.0825883938</v>
+        <v>463675.0825883936</v>
       </c>
       <c r="N2" t="n">
-        <v>463675.0825883941</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="O2" t="n">
-        <v>343829.0724022655</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="P2" t="n">
-        <v>343829.0724022654</v>
+        <v>463675.0825883939</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186404.7334147372</v>
+        <v>162124.6960695913</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361213</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346229</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115404</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348165</v>
+        <v>126577.2685802889</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701972</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537387</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>187607.6695456099</v>
+      </c>
+      <c r="C4" t="n">
         <v>173998.4022791778</v>
       </c>
-      <c r="C4" t="n">
-        <v>173998.4022791779</v>
-      </c>
       <c r="D4" t="n">
-        <v>173998.4022791779</v>
+        <v>173998.4022791778</v>
       </c>
       <c r="E4" t="n">
-        <v>43020.44595046938</v>
+        <v>58064.51385187966</v>
       </c>
       <c r="F4" t="n">
-        <v>43020.44595046938</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="G4" t="n">
-        <v>58064.51385187962</v>
+        <v>58064.51385187959</v>
       </c>
       <c r="H4" t="n">
         <v>58064.51385187964</v>
@@ -26448,16 +26450,16 @@
         <v>58064.51385187964</v>
       </c>
       <c r="M4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187951</v>
       </c>
       <c r="N4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187951</v>
       </c>
       <c r="O4" t="n">
-        <v>43020.44595046939</v>
+        <v>58064.51385187959</v>
       </c>
       <c r="P4" t="n">
-        <v>43020.44595046937</v>
+        <v>58064.51385187959</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>63041.22282216127</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26476,13 +26478,13 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756206</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756203</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52665.81437786625</v>
+        <v>67741.61267184693</v>
       </c>
       <c r="C6" t="n">
+        <v>215663.7141189912</v>
+      </c>
+      <c r="D6" t="n">
         <v>239070.5477926034</v>
       </c>
-      <c r="D6" t="n">
-        <v>239070.5477926035</v>
-      </c>
       <c r="E6" t="n">
-        <v>176319.2409207717</v>
+        <v>112121.1499914439</v>
       </c>
       <c r="F6" t="n">
-        <v>251650.1920742339</v>
+        <v>327860.5065480846</v>
       </c>
       <c r="G6" t="n">
-        <v>198970.1067365442</v>
+        <v>327860.5065480846</v>
       </c>
       <c r="H6" t="n">
+        <v>327860.5065480847</v>
+      </c>
+      <c r="I6" t="n">
         <v>327860.5065480845</v>
       </c>
-      <c r="I6" t="n">
-        <v>327860.5065480846</v>
-      </c>
       <c r="J6" t="n">
-        <v>182326.836613268</v>
+        <v>201283.2379677956</v>
       </c>
       <c r="K6" t="n">
-        <v>327860.5065480844</v>
+        <v>309213.9061910647</v>
       </c>
       <c r="L6" t="n">
         <v>327860.5065480845</v>
       </c>
       <c r="M6" t="n">
-        <v>264986.5695827106</v>
+        <v>147796.6350929168</v>
       </c>
       <c r="N6" t="n">
-        <v>327860.5065480848</v>
+        <v>327860.5065480847</v>
       </c>
       <c r="O6" t="n">
-        <v>251650.192074234</v>
+        <v>327860.5065480847</v>
       </c>
       <c r="P6" t="n">
-        <v>251650.192074234</v>
+        <v>327860.5065480847</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539683</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26796,13 +26798,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099023</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099018</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539683</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162586</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.299068094308</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629543</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539683</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162586</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943077</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27257,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539683</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162586</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.299068094308</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629543</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,13 +27387,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
+        <v>390.3743495457157</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>51.96789352643418</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>110.3214018278969</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>173.5654753938895</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>245.3945739651546</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>10.45284613863743</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8558112662508961</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>134.4062914546842</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,22 +27858,22 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>201.9824129405226</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,13 +27912,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>226.4593363808663</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>36.74534024663697</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>85.06615470143505</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -28849,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-5.862385031523347e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29004,7 +29006,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>3.110756097157719e-12</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.7766911539683</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>533.7539620806207</v>
+        <v>464.2301581780503</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539683</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539683</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,28 +34780,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>349.6900184701286</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>483.7766911539683</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>483.7766911539683</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>108.6062353448186</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34869,7 +34871,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>72.14114201029275</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>73.06155854104185</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>48.74406945557187</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>245.6677613624791</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>556.2278131155941</v>
@@ -35024,13 +35026,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>238.1458997847902</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
@@ -35094,7 +35096,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937756</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>48.74406945557187</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>415.010189472638</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
@@ -35255,10 +35257,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>444.605878150503</v>
       </c>
       <c r="M9" t="n">
-        <v>432.5378064344752</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,13 +35269,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>808.5268812099021</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>750.2086217246259</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>333.1613907719473</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35483,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>653.6187634914144</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>208.6225309666485</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>82.84778796434657</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>666.8514437878999</v>
       </c>
       <c r="L14" t="n">
-        <v>657.1153558257618</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099021</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099021</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>808.5268812099021</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
-        <v>738.7136072886926</v>
+        <v>130.1896540801013</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,10 +35889,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>540.8056218692378</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>616.220827727605</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35963,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,13 +35977,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>191.6381265752677</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36136,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>62.48282579338804</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.1971664929786</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>669.9344844018683</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36282,7 +36284,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115403</v>
       </c>
       <c r="M22" t="n">
         <v>395.137166636617</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>914.373791196984</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36437,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>191.6381265752678</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36847,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>324.5260868755248</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
@@ -36914,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>898.8580933463641</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>208.6225309666485</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>82.84778796434657</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37081,13 +37083,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>566.9967952982157</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>69.78487510406572</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37151,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37303,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>981.7058813107108</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>291.4703189309951</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37466,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K37" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937654</v>
       </c>
       <c r="L37" t="n">
         <v>358.2720417115361</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37549,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,13 +37627,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>928.4912652212506</v>
+        <v>0.3921559610386215</v>
       </c>
       <c r="O39" t="n">
         <v>898.4659373853249</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>53.12346381202809</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099023</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099023</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>808.5268812099023</v>
+        <v>200.7306752811501</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>422.5024167557669</v>
       </c>
       <c r="N42" t="n">
-        <v>459.2268568417294</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>808.5268812099023</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099018</v>
+        <v>713.9484244620658</v>
       </c>
       <c r="O44" t="n">
-        <v>34.69182146528428</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38090,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>202.3815786090831</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>808.5268812099018</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>369.3493785286307</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2040343.71760972</v>
+        <v>2039647.056404629</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114763</v>
+        <v>612367.9462114751</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6659364.516859784</v>
+        <v>6659364.516859786</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>192.7452134274072</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>30.49859044677805</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -837,7 +837,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>103.8171286208093</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>28.8755899663909</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.2553066834602</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>35.7935969121408</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -916,7 +916,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1056,10 +1056,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>51.58543740429482</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>106.4996628416748</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1135,16 +1135,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>0.2956717864458369</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>193.723760465999</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>181.1434624630639</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1299,19 +1299,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>127.800783542038</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>181.2635869532361</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>97.60112162899995</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1621,7 +1621,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -1675,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="15">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>4.378995526352145</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1818,13 +1818,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>165.7104322459758</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1900,13 +1900,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>75.30362264056416</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686788</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2149,7 +2149,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75.25534642053297</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>42.87682513228527</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>51.58543740429417</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2541,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2715,16 +2715,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>135.7468035496482</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>148.1612423902099</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>66.82300722903223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3511,19 +3511,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026568</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>71.04375511693026</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3748,19 +3748,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>116.2748171257525</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>19.64740624208219</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -3960,7 +3960,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3985,19 +3985,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026568</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439301</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>25.56785421268317</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>170.5586896897042</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>168.753400468571</v>
+        <v>1805.955049441331</v>
       </c>
       <c r="C2" t="n">
-        <v>145.8930745222751</v>
+        <v>1611.262914666172</v>
       </c>
       <c r="D2" t="n">
-        <v>126.6408577476795</v>
+        <v>1187.970293851172</v>
       </c>
       <c r="E2" t="n">
-        <v>104.7043219359411</v>
+        <v>1166.033758039434</v>
       </c>
       <c r="F2" t="n">
-        <v>73.89766491899357</v>
+        <v>740.9095762288339</v>
       </c>
       <c r="G2" t="n">
-        <v>73.59900654884626</v>
+        <v>336.5705138182826</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884626</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231746</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231746</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="K2" t="n">
-        <v>517.6410595347461</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="L2" t="n">
-        <v>517.6410595347461</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="M2" t="n">
-        <v>977.2289161310159</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="N2" t="n">
-        <v>1456.167840373445</v>
+        <v>403.5871017449292</v>
       </c>
       <c r="O2" t="n">
-        <v>1456.167840373445</v>
+        <v>882.5260259873571</v>
       </c>
       <c r="P2" t="n">
-        <v>1935.106764615873</v>
+        <v>1361.464950229785</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615873</v>
+        <v>1817.550429733968</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615873</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489013</v>
+        <v>1830.739470489011</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533647</v>
+        <v>1830.739470489011</v>
       </c>
       <c r="U2" t="n">
-        <v>1351.458990130059</v>
+        <v>1830.739470489011</v>
       </c>
       <c r="V2" t="n">
-        <v>993.9695752563084</v>
+        <v>1830.739470489011</v>
       </c>
       <c r="W2" t="n">
-        <v>597.5782255566553</v>
+        <v>1830.739470489011</v>
       </c>
       <c r="X2" t="n">
-        <v>589.8986307648066</v>
+        <v>1823.059875697162</v>
       </c>
       <c r="Y2" t="n">
-        <v>184.5613607196969</v>
+        <v>1821.763009692457</v>
       </c>
     </row>
     <row r="3">
@@ -4391,37 +4391,37 @@
         <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565625</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294997</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1320003124039</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000788</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231746</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="I3" t="n">
-        <v>46.14877825422931</v>
+        <v>46.14877825422926</v>
       </c>
       <c r="J3" t="n">
-        <v>317.8462675338204</v>
+        <v>317.8462675338203</v>
       </c>
       <c r="K3" t="n">
-        <v>317.8462675338204</v>
+        <v>796.7851917762482</v>
       </c>
       <c r="L3" t="n">
-        <v>317.8462675338204</v>
+        <v>796.7851917762482</v>
       </c>
       <c r="M3" t="n">
-        <v>796.7851917762489</v>
+        <v>1275.724116018676</v>
       </c>
       <c r="N3" t="n">
-        <v>1275.724116018677</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="O3" t="n">
         <v>1383.244289010048</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1121.883257816554</v>
+        <v>1022.11468955683</v>
       </c>
       <c r="C4" t="n">
-        <v>949.9106946954703</v>
+        <v>850.1421264357463</v>
       </c>
       <c r="D4" t="n">
-        <v>786.593921822241</v>
+        <v>686.825353562517</v>
       </c>
       <c r="E4" t="n">
-        <v>620.3857159750945</v>
+        <v>520.6171477153705</v>
       </c>
       <c r="F4" t="n">
-        <v>448.523941749655</v>
+        <v>348.7553734899309</v>
       </c>
       <c r="G4" t="n">
-        <v>282.2669720438871</v>
+        <v>182.498403784163</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231746</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647548</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223127</v>
+        <v>38.71266663273713</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167335</v>
+        <v>393.4019879271579</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.596180986984</v>
+        <v>784.5877828974087</v>
       </c>
       <c r="N4" t="n">
-        <v>1446.08769186302</v>
+        <v>1162.079293773445</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.50742245321</v>
+        <v>1517.507422453208</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375111</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615873</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615873</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>1935.106764615873</v>
+        <v>1764.971717135006</v>
       </c>
       <c r="T4" t="n">
-        <v>1691.767416841773</v>
+        <v>1521.632369360906</v>
       </c>
       <c r="U4" t="n">
-        <v>1586.901630356107</v>
+        <v>1241.44792086121</v>
       </c>
       <c r="V4" t="n">
-        <v>1586.901630356107</v>
+        <v>1212.280658268896</v>
       </c>
       <c r="W4" t="n">
-        <v>1312.04922652862</v>
+        <v>1212.280658268896</v>
       </c>
       <c r="X4" t="n">
-        <v>1312.04922652862</v>
+        <v>1212.280658268896</v>
       </c>
       <c r="Y4" t="n">
-        <v>1312.04922652862</v>
+        <v>1212.280658268896</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2043.959734409802</v>
+        <v>1287.678729207029</v>
       </c>
       <c r="C5" t="n">
-        <v>2021.099408463506</v>
+        <v>860.7779992203289</v>
       </c>
       <c r="D5" t="n">
-        <v>1597.806787648507</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E5" t="n">
-        <v>1171.829847796364</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F5" t="n">
-        <v>746.7056659857641</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>116.829168004879</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>116.829168004879</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M5" t="n">
-        <v>667.4947029893171</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N5" t="n">
-        <v>1218.160237973755</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O5" t="n">
-        <v>1218.160237973755</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
         <v>1768.825772958194</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X5" t="n">
-        <v>2217.231657670528</v>
+        <v>2112.864363543668</v>
       </c>
       <c r="Y5" t="n">
-        <v>2215.934791665823</v>
+        <v>1707.527093498559</v>
       </c>
     </row>
     <row r="6">
@@ -4649,25 +4649,25 @@
         <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>51.94486801115937</v>
+        <v>119.1699405917395</v>
       </c>
       <c r="L6" t="n">
-        <v>602.6104029955975</v>
+        <v>119.1699405917395</v>
       </c>
       <c r="M6" t="n">
-        <v>602.6104029955975</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="N6" t="n">
-        <v>838.3748437825398</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="O6" t="n">
-        <v>838.3748437825398</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>451.3798346740465</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="C7" t="n">
-        <v>451.3798346740465</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="D7" t="n">
-        <v>288.0630618008172</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="E7" t="n">
-        <v>288.0630618008172</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="F7" t="n">
-        <v>288.0630618008172</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
         <v>328.5171544792433</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1947.200787969719</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1667.016339470023</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V7" t="n">
-        <v>1385.304872078052</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W7" t="n">
-        <v>1110.452468250565</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X7" t="n">
-        <v>867.88857169637</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y7" t="n">
-        <v>641.5458033861121</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>533.9701437626245</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C8" t="n">
-        <v>511.1098178163287</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D8" t="n">
-        <v>87.81719700132894</v>
+        <v>895.898005082137</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959054</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F8" t="n">
         <v>44.79688341939484</v>
@@ -4804,52 +4804,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N8" t="n">
-        <v>1145.829295018124</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O8" t="n">
-        <v>1696.494830002562</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1899.61838738015</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V8" t="n">
-        <v>1542.1289725064</v>
+        <v>1770.875776931517</v>
       </c>
       <c r="W8" t="n">
-        <v>1542.1289725064</v>
+        <v>1770.875776931517</v>
       </c>
       <c r="X8" t="n">
-        <v>1359.155778099264</v>
+        <v>1763.196182139668</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.8185080541546</v>
+        <v>1761.899316134963</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
         <v>1307.021068682275</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>946.7665737820055</v>
+        <v>545.9957668907073</v>
       </c>
       <c r="C10" t="n">
-        <v>774.7940106609215</v>
+        <v>374.0232037696233</v>
       </c>
       <c r="D10" t="n">
-        <v>611.4772377876922</v>
+        <v>210.706430896394</v>
       </c>
       <c r="E10" t="n">
-        <v>482.385537240179</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F10" t="n">
-        <v>310.5237630147394</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>2041.81672018638</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>1761.632271686684</v>
       </c>
       <c r="V10" t="n">
-        <v>1654.348842875753</v>
+        <v>1479.920804294713</v>
       </c>
       <c r="W10" t="n">
-        <v>1379.496439048266</v>
+        <v>1205.068400467226</v>
       </c>
       <c r="X10" t="n">
-        <v>1136.932542494071</v>
+        <v>962.5045039130309</v>
       </c>
       <c r="Y10" t="n">
-        <v>1136.932542494071</v>
+        <v>736.161735602773</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L11" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M11" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N11" t="n">
-        <v>3114.325629236558</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O11" t="n">
-        <v>3959.47027938737</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P11" t="n">
-        <v>4667.749558545297</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
         <v>5115.135670291427</v>
@@ -5077,16 +5077,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M12" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N12" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O12" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P12" t="n">
         <v>1364.825557038856</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>516.5477476675582</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C13" t="n">
-        <v>516.5477476675582</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D13" t="n">
-        <v>516.5477476675582</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E13" t="n">
-        <v>516.5477476675582</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F13" t="n">
-        <v>344.6859734421186</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G13" t="n">
-        <v>344.6859734421186</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>200.8897049502729</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V13" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W13" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X13" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y13" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
         <v>435.0679631883225</v>
@@ -5278,19 +5278,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K14" t="n">
-        <v>1125.089101572745</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L14" t="n">
-        <v>1125.089101572745</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M14" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N14" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O14" t="n">
         <v>3950.770911629316</v>
@@ -5323,7 +5323,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>1782.102586447038</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O15" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>684.0483191256287</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="C16" t="n">
-        <v>512.0757560045447</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="D16" t="n">
-        <v>512.0757560045447</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="E16" t="n">
-        <v>345.8675501573982</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F16" t="n">
-        <v>345.8675501573982</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G16" t="n">
         <v>345.8675501573982</v>
@@ -5442,46 +5442,46 @@
         <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302486</v>
       </c>
       <c r="M16" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100499</v>
       </c>
       <c r="N16" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O16" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P16" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2065.542080025269</v>
       </c>
       <c r="T16" t="n">
-        <v>1898.15780502933</v>
+        <v>1822.202732251169</v>
       </c>
       <c r="U16" t="n">
-        <v>1617.973356529634</v>
+        <v>1542.018283751473</v>
       </c>
       <c r="V16" t="n">
-        <v>1617.973356529634</v>
+        <v>1260.306816359502</v>
       </c>
       <c r="W16" t="n">
-        <v>1343.120952702147</v>
+        <v>985.4544125320151</v>
       </c>
       <c r="X16" t="n">
-        <v>1100.557056147952</v>
+        <v>742.8905159778202</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.2142878376944</v>
+        <v>516.5477476675622</v>
       </c>
     </row>
     <row r="17">
@@ -5524,19 +5524,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2720.098147267829</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3696.34920575453</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5551,7 +5551,7 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
         <v>3777.607131232208</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>1529.586448057074</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>1529.586448057074</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1529.586448057074</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1529.586448057074</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>516.5477476675582</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>344.5751845464741</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>344.5751845464741</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>178.3669786993277</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
         <v>102.3027134058285</v>
@@ -5676,49 +5676,49 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358274</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302482</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100499</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,37 +5740,37 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>292.0244587153436</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5788,13 +5788,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5831,25 +5831,25 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>1165.735894343786</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>1165.735894343786</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
         <v>1828.971033901635</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>440.5322462326804</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>268.5596831115964</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D22" t="n">
-        <v>268.5596831115964</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E22" t="n">
-        <v>268.5596831115964</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F22" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
         <v>102.3027134058285</v>
@@ -5916,46 +5916,46 @@
         <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302486</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100499</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976535</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656298</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578199</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.677127506134</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025269</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251169</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751473</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359502</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>985.4544125320151</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778202</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675622</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5992,13 +5992,13 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
         <v>2988.069926596602</v>
@@ -6065,25 +6065,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
         <v>1364.825557038856</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>326.3817789554925</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>154.4092158344085</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D25" t="n">
-        <v>102.3027134058285</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6177,22 +6177,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.5477476675582</v>
+        <v>1228.793760306111</v>
       </c>
     </row>
     <row r="26">
@@ -6232,7 +6232,7 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.818868109901</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M26" t="n">
         <v>2011.818868109901</v>
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N27" t="n">
-        <v>730.647150085061</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O27" t="n">
-        <v>730.647150085061</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>431.8276921262043</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>431.8276921262043</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>848.3364291485279</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>621.99366083827</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6539,25 +6539,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
         <v>1364.825557038856</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>609.4538236255814</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>437.4812605044974</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
         <v>274.1644876312681</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>835.7965919358394</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>609.4538236255814</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6703,22 +6703,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1394.531219842001</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M32" t="n">
-        <v>2398.817321261059</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N32" t="n">
-        <v>3375.06837974776</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O32" t="n">
-        <v>4220.213029898572</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4928.4923090565</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6776,25 +6776,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>821.6753975134684</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6922,52 +6922,52 @@
         <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7025,19 +7025,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1446.844867123559</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>742.8905159778066</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>742.8905159778066</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>579.5737431045773</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>413.3655372574308</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>413.3655372574308</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358143</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
-        <v>741.010964130235</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100486</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976522</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656285</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578186</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818947</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.677127506121</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025255</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251155</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.01828375146</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359488</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>985.4544125320015</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778066</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.8905159778066</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F38" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
@@ -7186,37 +7186,37 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L39" t="n">
-        <v>4143.246847793825</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M39" t="n">
-        <v>4143.246847793825</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N39" t="n">
-        <v>4143.635082195253</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O39" t="n">
-        <v>5033.116360206724</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P39" t="n">
-        <v>5033.116360206724</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
-        <v>5033.116360206724</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4017.903765402536</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C40" t="n">
-        <v>3845.931202281452</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D40" t="n">
-        <v>3682.614429408222</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E40" t="n">
-        <v>3516.406223561076</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F40" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>5115.135670291427</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>5115.135670291427</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>5115.135670291427</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>4833.424202899456</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>4558.571799071969</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>4316.007902517774</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>4089.665134207516</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="41">
@@ -7393,25 +7393,25 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
@@ -7420,37 +7420,37 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O41" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P41" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
         <v>3365.887132399956</v>
@@ -7487,31 +7487,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>946.5481644506465</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>1364.825557038856</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N42" t="n">
-        <v>1364.825557038856</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O42" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>601.2341827829796</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>429.2616196618956</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>265.9448467886663</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>265.9448467886663</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
         <v>102.3027134058285</v>
@@ -7569,10 +7569,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V43" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W43" t="n">
-        <v>1260.306816359498</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X43" t="n">
-        <v>1017.742919805303</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y43" t="n">
-        <v>791.4001514950452</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="44">
@@ -7636,61 +7636,61 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2398.817321261059</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O44" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
         <v>2960.549862354846</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>3578.14552899051</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K45" t="n">
-        <v>3578.14552899051</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L45" t="n">
-        <v>3578.14552899051</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M45" t="n">
-        <v>3578.14552899051</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N45" t="n">
-        <v>4667.46047546338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O45" t="n">
-        <v>4667.46047546338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P45" t="n">
-        <v>4667.46047546338</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>5033.116360206724</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3918.135197142812</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C46" t="n">
-        <v>3746.162634021728</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="D46" t="n">
-        <v>3582.845861148498</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="E46" t="n">
-        <v>3416.637655301352</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="F46" t="n">
-        <v>3244.775881075912</v>
+        <v>371.6936655237448</v>
       </c>
       <c r="G46" t="n">
-        <v>3078.518911370144</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>4871.796322517327</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U46" t="n">
-        <v>4591.611874017632</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V46" t="n">
-        <v>4591.611874017632</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W46" t="n">
-        <v>4316.759470190144</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X46" t="n">
-        <v>4144.477965453069</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y46" t="n">
-        <v>3918.135197142812</v>
+        <v>733.72140846125</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487776</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>501.6614210774821</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>521.0563139884143</v>
+        <v>39.58417600183618</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>521.1676505099917</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641996</v>
+        <v>521.3520529641989</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,19 +8060,19 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.175924987301</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662963</v>
+        <v>506.8734716662956</v>
       </c>
       <c r="N3" t="n">
-        <v>505.11971936751</v>
+        <v>129.9492635583616</v>
       </c>
       <c r="O3" t="n">
-        <v>131.7781250670408</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.97529217030766</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8151,7 +8151,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>94.6403295087172</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>108.8261593358512</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>301.3352940721928</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
@@ -8233,7 +8233,7 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8297,28 +8297,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>90.30334755109108</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>259.4889279983319</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464876</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8452,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>205.7998844961774</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
@@ -8470,13 +8470,13 @@
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>452.5855512828693</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>467.1209648647325</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8546,10 +8546,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8698,10 +8698,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>423.228367941047</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8710,10 +8710,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>369.2860653765454</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8786,7 +8786,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>230.3933721714771</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>702.6160445827093</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
@@ -8941,7 +8941,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>262.439123722643</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>618.848654609434</v>
@@ -9017,19 +9017,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>153.3615438023236</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>653.6520906270367</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
@@ -9260,13 +9260,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>407.0273017394389</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>221.0580860608543</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9418,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9479,28 +9479,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>693.1063741240905</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9640,16 +9640,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>574.2427960500296</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -9734,7 +9734,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
@@ -9880,10 +9880,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>878.1144544646206</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0343783945846</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -9974,7 +9974,7 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10187,28 +10187,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>229.9655591801901</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
@@ -10351,10 +10351,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10363,13 +10363,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>716.4444307130257</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>105.9095497086638</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,28 +10424,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>749.1541615704315</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10591,13 +10591,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10673,22 +10673,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>312.8133471445368</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>924.1790155406098</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>53.23515454148313</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.73518417458029</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,19 +11068,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O41" t="n">
-        <v>238.1216346371742</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11144,25 +11144,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>445.5991972680949</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,16 +11299,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>751.2280472965118</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11320,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11387,19 +11387,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>218.8803944444793</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>392.0964168176092</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23433,10 +23433,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>1.169760948126836</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.8853134985928</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>75.19552205038323</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>94.83953384262102</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.98949189918861</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>113.008962604412</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>145.3874838926597</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>104.3914540390047</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>91.97701519844301</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.77139277967795</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>117.2205539080147</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040147043</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>71.98949189919253</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>150.495750241103</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>139.026545796027</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>69.57956789894868</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>577142.5764940749</v>
+        <v>577142.576494075</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>577142.5764940749</v>
+        <v>577142.576494075</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>577142.576494075</v>
+        <v>577142.5764940749</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>577142.576494075</v>
+        <v>577142.5764940749</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>577142.5764940748</v>
+        <v>577142.5764940749</v>
       </c>
     </row>
     <row r="14">
@@ -26319,19 +26319,19 @@
         <v>480515.2011092093</v>
       </c>
       <c r="D2" t="n">
-        <v>480515.2011092094</v>
+        <v>480515.2011092095</v>
       </c>
       <c r="E2" t="n">
+        <v>463675.0825883939</v>
+      </c>
+      <c r="F2" t="n">
         <v>463675.0825883938</v>
-      </c>
-      <c r="F2" t="n">
-        <v>463675.0825883939</v>
       </c>
       <c r="G2" t="n">
         <v>463675.0825883938</v>
       </c>
       <c r="H2" t="n">
-        <v>463675.0825883941</v>
+        <v>463675.0825883937</v>
       </c>
       <c r="I2" t="n">
         <v>463675.0825883938</v>
@@ -26343,19 +26343,19 @@
         <v>463675.0825883938</v>
       </c>
       <c r="L2" t="n">
+        <v>463675.0825883939</v>
+      </c>
+      <c r="M2" t="n">
+        <v>463675.0825883937</v>
+      </c>
+      <c r="N2" t="n">
         <v>463675.0825883938</v>
       </c>
-      <c r="M2" t="n">
-        <v>463675.0825883936</v>
-      </c>
-      <c r="N2" t="n">
-        <v>463675.0825883939</v>
-      </c>
       <c r="O2" t="n">
-        <v>463675.0825883939</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="P2" t="n">
-        <v>463675.0825883939</v>
+        <v>463675.0825883941</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695913</v>
+        <v>162124.6960695911</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361213</v>
+        <v>23406.83367361233</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802889</v>
+        <v>126577.2685802887</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701972</v>
+        <v>18646.60035701988</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187607.6695456099</v>
+        <v>187607.6695456101</v>
       </c>
       <c r="C4" t="n">
-        <v>173998.4022791778</v>
+        <v>173998.4022791779</v>
       </c>
       <c r="D4" t="n">
-        <v>173998.4022791778</v>
+        <v>173998.4022791779</v>
       </c>
       <c r="E4" t="n">
-        <v>58064.51385187966</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="F4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="G4" t="n">
-        <v>58064.51385187959</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="H4" t="n">
         <v>58064.51385187964</v>
@@ -26450,16 +26450,16 @@
         <v>58064.51385187964</v>
       </c>
       <c r="M4" t="n">
-        <v>58064.51385187951</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="N4" t="n">
-        <v>58064.51385187951</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="O4" t="n">
-        <v>58064.51385187959</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="P4" t="n">
-        <v>58064.51385187959</v>
+        <v>58064.51385187963</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216127</v>
+        <v>63041.22282216123</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67741.61267184693</v>
+        <v>67741.61267184703</v>
       </c>
       <c r="C6" t="n">
-        <v>215663.7141189912</v>
+        <v>215663.714118991</v>
       </c>
       <c r="D6" t="n">
-        <v>239070.5477926034</v>
+        <v>239070.5477926035</v>
       </c>
       <c r="E6" t="n">
-        <v>112121.1499914439</v>
+        <v>112070.1193292597</v>
       </c>
       <c r="F6" t="n">
-        <v>327860.5065480846</v>
+        <v>327809.4758859001</v>
       </c>
       <c r="G6" t="n">
-        <v>327860.5065480846</v>
+        <v>327809.4758859002</v>
       </c>
       <c r="H6" t="n">
-        <v>327860.5065480847</v>
+        <v>327809.4758859001</v>
       </c>
       <c r="I6" t="n">
-        <v>327860.5065480845</v>
+        <v>327809.4758859001</v>
       </c>
       <c r="J6" t="n">
-        <v>201283.2379677956</v>
+        <v>201232.2073056115</v>
       </c>
       <c r="K6" t="n">
-        <v>309213.9061910647</v>
+        <v>309162.8755288803</v>
       </c>
       <c r="L6" t="n">
-        <v>327860.5065480845</v>
+        <v>327809.4758859003</v>
       </c>
       <c r="M6" t="n">
-        <v>147796.6350929168</v>
+        <v>147745.6044307325</v>
       </c>
       <c r="N6" t="n">
-        <v>327860.5065480847</v>
+        <v>327809.4758859003</v>
       </c>
       <c r="O6" t="n">
-        <v>327860.5065480847</v>
+        <v>327809.4758859003</v>
       </c>
       <c r="P6" t="n">
-        <v>327860.5065480847</v>
+        <v>327809.4758859005</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539683</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539683</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162586</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539683</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162586</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539683</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162586</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>229.8865092594257</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>390.3743495457157</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,19 +27587,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>173.5654753938895</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>250.0187627516605</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>245.3945739651546</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>383.2660976947089</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27684,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -27791,10 +27791,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>47.18544517283196</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>134.4062914546842</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>160.190760259014</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>226.4593363808663</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>36.74534024663697</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>59.64236734312294</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28514,7 +28514,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28626,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28748,7 +28748,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539683</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>464.2301581780503</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>483.7766911539683</v>
+        <v>2.304553167390154</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539683</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539683</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="N3" t="n">
-        <v>483.7766911539683</v>
+        <v>108.6062353448199</v>
       </c>
       <c r="O3" t="n">
-        <v>108.6062353448186</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0.01063771759566716</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34871,7 +34871,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>72.14114201029275</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
@@ -34935,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>73.06155854104185</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
@@ -34953,7 +34953,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35017,28 +35017,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>67.90411371775774</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>238.1458997847902</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937756</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35190,13 +35190,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>415.010189472638</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>444.605878150503</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35418,10 +35418,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>385.7971050416152</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35430,10 +35430,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>333.1613907719473</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>208.6225309666485</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>666.8514437878999</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
@@ -35661,7 +35661,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>225.0481643666189</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>596.4494207761006</v>
@@ -35737,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>130.1896540801013</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35810,7 +35810,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115403</v>
       </c>
       <c r="M16" t="n">
         <v>395.137166636617</v>
@@ -35892,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>616.220827727605</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>385.2564605346102</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937787</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>191.6381265752677</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36138,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36199,28 +36199,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>669.9344844018683</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>82.84778796434657</v>
@@ -36284,7 +36284,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>358.2720417115403</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
         <v>395.137166636617</v>
@@ -36360,16 +36360,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>551.8435622166962</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
@@ -36600,10 +36600,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
         <v>839.8024120319977</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>208.6225309666485</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
@@ -37071,10 +37071,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37083,13 +37083,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>679.0534713570016</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>69.78487510406572</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>726.6390748562019</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37311,13 +37311,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37393,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>291.4703189309951</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K37" t="n">
-        <v>228.8157587937654</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L37" t="n">
         <v>358.2720417115361</v>
@@ -37554,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>886.8993927061638</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>30.72006782725357</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0.3921559610386215</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,19 +37788,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O41" t="n">
-        <v>200.7306752811501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>422.5024167557669</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>713.9484244620658</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38040,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38107,19 +38107,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>197.5373662309377</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>369.3493785286307</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
